--- a/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>1.- ¿Comparada con el año pasado, ¿cómo diría que está actualmente su situación económica personal?</t>
   </si>
@@ -54,18 +54,6 @@
     <t>5.- El 1° de julio habrá elecciones para Gobernador, Presidentes Municipales y Diputados Locales, ¿Qué tanto le interesa votar en estas elecciones?</t>
   </si>
   <si>
-    <t xml:space="preserve">6.- Si el día de hoy fueran las elecciones para Presidente Municipal ¿Por cuál partido  votaría? </t>
-  </si>
-  <si>
-    <t>7.- En este momento, ¿Con qué partido político se identifica más?</t>
-  </si>
-  <si>
-    <t>8.- ¿Por qué partido político nunca votaría?</t>
-  </si>
-  <si>
-    <t>9.- Le voy a leer una lista de personalidades del Distrito:</t>
-  </si>
-  <si>
     <t>1) Lorenzo Suárez</t>
   </si>
   <si>
@@ -78,114 +66,6 @@
     <t>4) Carmelita Lezama de Madero</t>
   </si>
   <si>
-    <t>5) Mario Herrera Arzola</t>
-  </si>
-  <si>
-    <t>9.1.1 - ¿Ha oído hablar de: ?</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>9.2.2</t>
-  </si>
-  <si>
-    <t>9.2.3</t>
-  </si>
-  <si>
-    <t>9.2.4</t>
-  </si>
-  <si>
-    <t>9.3.1</t>
-  </si>
-  <si>
-    <t>9.3.2</t>
-  </si>
-  <si>
-    <t>9.3.3</t>
-  </si>
-  <si>
-    <t>9.3.4</t>
-  </si>
-  <si>
-    <t>9.4.1</t>
-  </si>
-  <si>
-    <t>9.4.2</t>
-  </si>
-  <si>
-    <t>9.4.3</t>
-  </si>
-  <si>
-    <t>9.4.4</t>
-  </si>
-  <si>
-    <t>9.5.1</t>
-  </si>
-  <si>
-    <t>9.5.2</t>
-  </si>
-  <si>
-    <t>9.5.3</t>
-  </si>
-  <si>
-    <t>9.5.4</t>
-  </si>
-  <si>
-    <t>9.6.1</t>
-  </si>
-  <si>
-    <t>9.6.2</t>
-  </si>
-  <si>
-    <t>9.6.3</t>
-  </si>
-  <si>
-    <t>9.6.4</t>
-  </si>
-  <si>
-    <t>9.7.1</t>
-  </si>
-  <si>
-    <t>9.7.2</t>
-  </si>
-  <si>
-    <t>9.7.3</t>
-  </si>
-  <si>
-    <t>9.7.4</t>
-  </si>
-  <si>
-    <t>9.8.1</t>
-  </si>
-  <si>
-    <t>9.8.2</t>
-  </si>
-  <si>
-    <t>9.8.3</t>
-  </si>
-  <si>
-    <t>9.8.4</t>
-  </si>
-  <si>
-    <t>10.- ¿Quién de los nombres que le acabo de leer le gustaría que fuera  Diputado Local por este Distrito?</t>
-  </si>
-  <si>
-    <t>11.- Independientemente del candidato que postulen, de la siguiente lista de alianzas, ¿Por  cuál votaría Usted?</t>
-  </si>
-  <si>
-    <t>12.- Independientemente de por quién va a votar, ¿quién cree que ganará las elecciones para Diputado Local en este Distrito?</t>
-  </si>
-  <si>
-    <t>6) Pedro Fernández Carrera</t>
-  </si>
-  <si>
-    <t>7) Eduardo Vargas Guerrero</t>
-  </si>
-  <si>
-    <t>8) Conchita Cazares</t>
-  </si>
-  <si>
     <t>opciones</t>
   </si>
   <si>
@@ -240,13 +120,76 @@
     <t>17 )</t>
   </si>
   <si>
-    <t>9.1.2 - ¿De qué partido político es?</t>
-  </si>
-  <si>
-    <t>9.1.3 - ¿Ud. Votaría por él para DIPUTADO LOCAL?</t>
-  </si>
-  <si>
-    <t>9.1.4 -¿Qué opinión tiene de él / ella?</t>
+    <t xml:space="preserve">6.- En este momento, ¿Con qué partido político se identifica más? </t>
+  </si>
+  <si>
+    <t>7.- ¿Por qué partido político nunca votaría?</t>
+  </si>
+  <si>
+    <t>8.- Si el día de hoy fueran las elecciones para elegir GOBERNADOR DEL ESTADO ¿Por cuál partido votaría?</t>
+  </si>
+  <si>
+    <t>9.- Si el día de hoy fueran las elecciones para elegir DIPUTADO LOCAL ¿Por cuál partido votaría?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.- Le voy a leer una lista de personalidades del Distrito: </t>
+  </si>
+  <si>
+    <t>10.1.1 - ¿Ha oído hablar de: ?</t>
+  </si>
+  <si>
+    <t>10.1.2 - ¿De qué partido político es?</t>
+  </si>
+  <si>
+    <t>10.1.3 - ¿Ud. Votaría por él para DIPUTADO LOCAL?</t>
+  </si>
+  <si>
+    <t>10.1.4 -¿Qué opinión tiene de él / ella?</t>
+  </si>
+  <si>
+    <t>10.2.1</t>
+  </si>
+  <si>
+    <t>10.2.2</t>
+  </si>
+  <si>
+    <t>10.2.3</t>
+  </si>
+  <si>
+    <t>10.2.4</t>
+  </si>
+  <si>
+    <t>10.3.1</t>
+  </si>
+  <si>
+    <t>10.3.2</t>
+  </si>
+  <si>
+    <t>10.3.3</t>
+  </si>
+  <si>
+    <t>10.3.4</t>
+  </si>
+  <si>
+    <t>10.4.1</t>
+  </si>
+  <si>
+    <t>10.4.2</t>
+  </si>
+  <si>
+    <t>10.4.3</t>
+  </si>
+  <si>
+    <t>10.4.4</t>
+  </si>
+  <si>
+    <t>11.- ¿Quién de los nombres que le acabo de leer le gustaría que fuera Diputado Local por este Distrito?</t>
+  </si>
+  <si>
+    <t>12.- Si hoy fueran las elecciones y los unicos candidatos fueran tarjeta 5 ¿Por cual de estas opciones votaria para DIPUTADO LOCAL?</t>
+  </si>
+  <si>
+    <t>14.- Independientemente de por quién va a votar, ¿quién cree que ganará las elecciones para Diputado Local en este Distrito?</t>
   </si>
 </sst>
 </file>
@@ -294,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -317,11 +260,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,6 +318,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,30 +608,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX20"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="42" max="42" width="30.28515625" customWidth="1"/>
-    <col min="43" max="43" width="21.28515625" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" customWidth="1"/>
-    <col min="45" max="45" width="13.42578125" customWidth="1"/>
-    <col min="46" max="46" width="17.42578125" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="26.28515625" customWidth="1"/>
-    <col min="49" max="49" width="24.42578125" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" customWidth="1"/>
+    <col min="2" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="30.28515625" customWidth="1"/>
+    <col min="28" max="29" width="21.28515625" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -660,18 +648,20 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -687,50 +677,35 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -740,65 +715,42 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -808,221 +760,309 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="3" t="s">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3" t="s">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="3" t="s">
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="3" t="s">
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="3" t="s">
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="3" t="s">
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="3" t="s">
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="3" t="s">
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="3" t="s">
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="3" t="s">
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="3" t="s">
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>SUM(B4:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:AI22" si="0">SUM(C4:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="J1:AO1"/>
-    <mergeCell ref="I1:I3"/>
+  <mergeCells count="24">
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="K1:Z1"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="AC1:AC3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>

--- a/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>1.- ¿Comparada con el año pasado, ¿cómo diría que está actualmente su situación económica personal?</t>
   </si>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,9 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,6 +325,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,138 +630,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="5" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
@@ -809,15 +810,15 @@
       <c r="Z3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -905,152 +906,2255 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>SUM(B4:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:AI22" si="0">SUM(C4:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
+        <f t="shared" ref="B22:AE22" si="0">SUM(B4:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="K22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="M22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="N22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="P22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="Q22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="R22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="S22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="T22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22">
+      <c r="U22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="V22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X22">
+      <c r="W22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="X22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="Y22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="Z22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AA22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AB22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD22">
+      <c r="AC22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22">
+      <c r="AD22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AE22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AF22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C22:AI22" si="1">SUM(AF4:AF20)</f>
         <v>0</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10" t="e">
+        <f>100/B22*B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="10" t="e">
+        <f>100/C22*C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="10" t="e">
+        <f>100/D22*D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="10" t="e">
+        <f>100/E22*E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="10" t="e">
+        <f>100/F22*F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="10" t="e">
+        <f>100/G22*G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="10" t="e">
+        <f t="shared" ref="H23:AE23" si="2">100/H22*H4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10" t="e">
+        <f>100/B22*B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="10" t="e">
+        <f>100/C22*C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="10" t="e">
+        <f>100/D22*D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="10" t="e">
+        <f>100/E22*E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="10" t="e">
+        <f>100/F22*F5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="10" t="e">
+        <f>100/G22*G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="10" t="e">
+        <f t="shared" ref="H24:AE24" si="3">100/H22*H5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10" t="e">
+        <f>100/B22*B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="10" t="e">
+        <f>100/C22*C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="10" t="e">
+        <f>100/D22*D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="10" t="e">
+        <f>100/E22*E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="10" t="e">
+        <f>100/F22*F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="10" t="e">
+        <f>100/G22*G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="10" t="e">
+        <f t="shared" ref="H25:AE25" si="4">100/H22*H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10" t="e">
+        <f>100/B22*B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="10" t="e">
+        <f>100/C22*C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="10" t="e">
+        <f>100/D22*D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="10" t="e">
+        <f>100/E22*E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="10" t="e">
+        <f>100/F22*F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="10" t="e">
+        <f>100/G22*G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="10" t="e">
+        <f t="shared" ref="H26:AE26" si="5">100/H22*H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10" t="e">
+        <f>100/B22*B8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="10" t="e">
+        <f>100/C22*C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="10" t="e">
+        <f>100/D22*D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="10" t="e">
+        <f>100/E22*E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="10" t="e">
+        <f>100/F22*F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="10" t="e">
+        <f>100/G22*G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="10" t="e">
+        <f t="shared" ref="H27:AE27" si="6">100/H22*H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="e">
+        <f>100/D22*D9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="e">
+        <f>100/G22*G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="10" t="e">
+        <f t="shared" ref="H28:AE28" si="7">100/H22*H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="e">
+        <f>100/G22*G10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="10" t="e">
+        <f t="shared" ref="H29:AE29" si="8">100/H22*H10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="e">
+        <f>100/G22*G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="10" t="e">
+        <f t="shared" ref="H30:AE30" si="9">100/H22*H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="e">
+        <f>100/G22*G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="10" t="e">
+        <f t="shared" ref="H31:AE31" si="10">100/H22*H12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="e">
+        <f>100/G22*G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="10" t="e">
+        <f t="shared" ref="H32:AE32" si="11">100/H22*H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="e">
+        <f>100/G22*G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="10" t="e">
+        <f t="shared" ref="H33:AE33" si="12">100/H22*H14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE33" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="e">
+        <f>100/G22*G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="10" t="e">
+        <f t="shared" ref="H34:AE34" si="13">100/H22*H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE34" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="e">
+        <f>100/G22*G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="10" t="e">
+        <f t="shared" ref="H35:AE35" si="14">100/H22*H16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE35" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="e">
+        <f>100/G22*G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="10" t="e">
+        <f t="shared" ref="H36:AE36" si="15">100/H22*H17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE36" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="e">
+        <f>100/G22*G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="10" t="e">
+        <f t="shared" ref="H37:AE37" si="16">100/H22*H18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE37" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="e">
+        <f>100/G22*G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f t="shared" ref="H38:AE38" si="17">100/H22*H19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="e">
+        <f>100/G22*G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" ref="H39:AE39" si="18">100/H22*H20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE39" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="e">
+        <f>SUM(B23:B39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="10" t="e">
+        <f t="shared" ref="C41:AE41" si="19">SUM(C23:C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE41" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="K1:Z1"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AC1:AC3"/>
@@ -1063,11 +3167,13 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva/Reportes/Preguntas y respuestas.xlsx
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="T10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" ref="C22:AI22" si="1">SUM(AF4:AF20)</f>
+        <f t="shared" ref="AF22:AI22" si="1">SUM(AF4:AF20)</f>
         <v>0</v>
       </c>
       <c r="AG22">
@@ -1049,123 +1049,139 @@
         <v>16</v>
       </c>
       <c r="B23" s="10" t="e">
-        <f>100/B22*B4</f>
+        <f t="shared" ref="B23:G23" si="2">100/B22*B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C23" s="10" t="e">
-        <f>100/C22*C4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="10" t="e">
-        <f>100/D22*D4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="10" t="e">
-        <f>100/E22*E4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="10" t="e">
-        <f>100/F22*F4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="10" t="e">
-        <f>100/G22*G4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="10" t="e">
-        <f t="shared" ref="H23:AE23" si="2">100/H22*H4</f>
+        <f t="shared" ref="H23:AE23" si="3">100/H22*H4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="10" t="e">
+        <f t="shared" ref="AF23:AI23" si="4">100/AF22*AF4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="10" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1174,123 +1190,139 @@
         <v>17</v>
       </c>
       <c r="B24" s="10" t="e">
-        <f>100/B22*B5</f>
+        <f t="shared" ref="B24:G24" si="5">100/B22*B5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C24" s="10" t="e">
-        <f>100/C22*C5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="10" t="e">
-        <f>100/D22*D5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="10" t="e">
-        <f>100/E22*E5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="10" t="e">
-        <f>100/F22*F5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="10" t="e">
-        <f>100/G22*G5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="10" t="e">
-        <f t="shared" ref="H24:AE24" si="3">100/H22*H5</f>
+        <f t="shared" ref="H24:AE24" si="6">100/H22*H5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="10" t="e">
+        <f t="shared" ref="AF24:AI24" si="7">100/AF22*AF5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="10" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1299,123 +1331,139 @@
         <v>18</v>
       </c>
       <c r="B25" s="10" t="e">
-        <f>100/B22*B6</f>
+        <f t="shared" ref="B25:G25" si="8">100/B22*B6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C25" s="10" t="e">
-        <f>100/C22*C6</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="10" t="e">
-        <f>100/D22*D6</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="10" t="e">
-        <f>100/E22*E6</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="10" t="e">
-        <f>100/F22*F6</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="10" t="e">
-        <f>100/G22*G6</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="10" t="e">
-        <f t="shared" ref="H25:AE25" si="4">100/H22*H6</f>
+        <f t="shared" ref="H25:AE25" si="9">100/H22*H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="10" t="e">
+        <f t="shared" ref="AF25:AI25" si="10">100/AF22*AF6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="10" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1424,123 +1472,139 @@
         <v>19</v>
       </c>
       <c r="B26" s="10" t="e">
-        <f>100/B22*B7</f>
+        <f t="shared" ref="B26:G26" si="11">100/B22*B7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C26" s="10" t="e">
-        <f>100/C22*C7</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="10" t="e">
-        <f>100/D22*D7</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="10" t="e">
-        <f>100/E22*E7</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="10" t="e">
-        <f>100/F22*F7</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="10" t="e">
-        <f>100/G22*G7</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="10" t="e">
-        <f t="shared" ref="H26:AE26" si="5">100/H22*H7</f>
+        <f t="shared" ref="H26:AE26" si="12">100/H22*H7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE26" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="10" t="e">
+        <f t="shared" ref="AF26:AI26" si="13">100/AF22*AF7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="10" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1549,123 +1613,139 @@
         <v>20</v>
       </c>
       <c r="B27" s="10" t="e">
-        <f>100/B22*B8</f>
+        <f t="shared" ref="B27:G27" si="14">100/B22*B8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C27" s="10" t="e">
-        <f>100/C22*C8</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>100/D22*D8</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="10" t="e">
-        <f>100/E22*E8</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="10" t="e">
-        <f>100/F22*F8</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="10" t="e">
-        <f>100/G22*G8</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="10" t="e">
-        <f t="shared" ref="H27:AE27" si="6">100/H22*H8</f>
+        <f t="shared" ref="H27:AE27" si="15">100/H22*H8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE27" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="10" t="e">
+        <f t="shared" ref="AF27:AI27" si="16">100/AF22*AF8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="10" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1686,99 +1766,115 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:AE28" si="7">100/H22*H9</f>
+        <f t="shared" ref="H28:AE28" si="17">100/H22*H9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="10" t="e">
+        <f t="shared" ref="AF28:AI28" si="18">100/AF22*AF9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="10" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="10" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1796,99 +1892,115 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="10" t="e">
-        <f t="shared" ref="H29:AE29" si="8">100/H22*H10</f>
+        <f t="shared" ref="H29:AE29" si="19">100/H22*H10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE29" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF29" s="10" t="e">
+        <f t="shared" ref="AF29:AI29" si="20">100/AF22*AF10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="10" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="10" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1906,99 +2018,115 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="10" t="e">
-        <f t="shared" ref="H30:AE30" si="9">100/H22*H11</f>
+        <f t="shared" ref="H30:AE30" si="21">100/H22*H11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="10" t="e">
+        <f t="shared" ref="AF30:AI30" si="22">100/AF22*AF11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="10" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2016,99 +2144,115 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="10" t="e">
-        <f t="shared" ref="H31:AE31" si="10">100/H22*H12</f>
+        <f t="shared" ref="H31:AE31" si="23">100/H22*H12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE31" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="10" t="e">
+        <f t="shared" ref="AF31:AI31" si="24">100/AF22*AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="10" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2126,103 +2270,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="10" t="e">
-        <f t="shared" ref="H32:AE32" si="11">100/H22*H13</f>
+        <f t="shared" ref="H32:AE32" si="25">100/H22*H13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE32" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="10" t="e">
+        <f t="shared" ref="AF32:AI32" si="26">100/AF22*AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
@@ -2236,103 +2396,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="10" t="e">
-        <f t="shared" ref="H33:AE33" si="12">100/H22*H14</f>
+        <f t="shared" ref="H33:AE33" si="27">100/H22*H14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE33" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="10" t="e">
+        <f t="shared" ref="AF33:AI33" si="28">100/AF22*AF14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI33" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>27</v>
       </c>
@@ -2346,103 +2522,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="10" t="e">
-        <f t="shared" ref="H34:AE34" si="13">100/H22*H15</f>
+        <f t="shared" ref="H34:AE34" si="29">100/H22*H15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE34" s="10" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34" s="10" t="e">
+        <f t="shared" ref="AF34:AI34" si="30">100/AF22*AF15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI34" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>28</v>
       </c>
@@ -2456,103 +2648,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="10" t="e">
-        <f t="shared" ref="H35:AE35" si="14">100/H22*H16</f>
+        <f t="shared" ref="H35:AE35" si="31">100/H22*H16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="10" t="e">
+        <f t="shared" ref="AF35:AI35" si="32">100/AF22*AF16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="10" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH35" s="10" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI35" s="10" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>29</v>
       </c>
@@ -2566,103 +2774,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="10" t="e">
-        <f t="shared" ref="H36:AE36" si="15">100/H22*H17</f>
+        <f t="shared" ref="H36:AE36" si="33">100/H22*H17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE36" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF36" s="10" t="e">
+        <f t="shared" ref="AF36:AI36" si="34">100/AF22*AF17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG36" s="10" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH36" s="10" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI36" s="10" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
@@ -2676,103 +2900,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="10" t="e">
-        <f t="shared" ref="H37:AE37" si="16">100/H22*H18</f>
+        <f t="shared" ref="H37:AE37" si="35">100/H22*H18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE37" s="10" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF37" s="10" t="e">
+        <f t="shared" ref="AF37:AI37" si="36">100/AF22*AF18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG37" s="10" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH37" s="10" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI37" s="10" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>31</v>
       </c>
@@ -2786,103 +3026,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="10" t="e">
-        <f t="shared" ref="H38:AE38" si="17">100/H22*H19</f>
+        <f t="shared" ref="H38:AE38" si="37">100/H22*H19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE38" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="10" t="e">
+        <f t="shared" ref="AF38:AI38" si="38">100/AF22*AF19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="10" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH38" s="10" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="10" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>32</v>
       </c>
@@ -2896,103 +3152,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="10" t="e">
-        <f t="shared" ref="H39:AE39" si="18">100/H22*H20</f>
+        <f t="shared" ref="H39:AE39" si="39">100/H22*H20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE39" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF39" s="10" t="e">
+        <f t="shared" ref="AF39:AI39" si="40">100/AF22*AF20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG39" s="10" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH39" s="10" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI39" s="10" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3024,127 +3296,147 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="e">
         <f>SUM(B23:B39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="10" t="e">
-        <f t="shared" ref="C41:AE41" si="19">SUM(C23:C39)</f>
+        <f t="shared" ref="C41:AE41" si="41">SUM(C23:C39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE41" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF41" s="10" t="e">
+        <f t="shared" ref="AF41:AI41" si="42">SUM(AF23:AF39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="10" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH41" s="10" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI41" s="10" t="e">
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
     </row>
